--- a/DallAgnese Lucas-PPL_2024/Examen1.xlsx
+++ b/DallAgnese Lucas-PPL_2024/Examen1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\LucasDallAgnese_Examen\DallAgnese Lucas-PPL_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE64D65-47B0-483F-B257-81C096BA9082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2844C-2148-4EFB-9378-2EB2D6207B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{14535221-0700-4A2B-BD01-5E25FB48B835}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Fecha de Ingreso</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Suma de Pago de Peaje (USD)</t>
+  </si>
+  <si>
+    <t>Total de la suma:</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -2787,79 +2793,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DA1CF4D-0C52-4FAD-9D6F-3B0EF0AA3DC3}" name="TablaDinámica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="D1:E7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Cantidad de transportes" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="6" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05272B26-F8DA-4C4F-B698-BDA15559332B}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05272B26-F8DA-4C4F-B698-BDA15559332B}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="14" showAll="0">
@@ -2996,17 +2930,92 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DA1CF4D-0C52-4FAD-9D6F-3B0EF0AA3DC3}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="D1:E7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Cantidad de transportes" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6910F8A-2F01-421E-897D-F71A1FF56D0B}" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{E6910F8A-2F01-421E-897D-F71A1FF56D0B}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{03581F42-86F2-4F75-BD91-A8A84F9608B4}" name="Fecha de Ingreso" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6910F8A-2F01-421E-897D-F71A1FF56D0B}" name="Tabla1" displayName="Tabla1" ref="A1:G21" totalsRowShown="0">
+  <autoFilter ref="A1:G21" xr:uid="{E6910F8A-2F01-421E-897D-F71A1FF56D0B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{03581F42-86F2-4F75-BD91-A8A84F9608B4}" name="Fecha de Ingreso" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7551517D-BB8E-41C0-BABC-AA5587E2AD85}" name="Tipo de Transporte"/>
     <tableColumn id="3" xr3:uid="{01A5F27B-2B88-4195-A5F8-75F2829D73D4}" name="Peso (Toneladas)"/>
     <tableColumn id="4" xr3:uid="{E6281D34-B387-4722-9E71-563113895A2D}" name="Cantidad de transportes"/>
     <tableColumn id="5" xr3:uid="{020FDF00-F971-4C9D-B5C3-BC63EDACB1D7}" name="Pago de Peaje (USD)"/>
-    <tableColumn id="6" xr3:uid="{E8388D6B-7F38-4BF7-A883-EE1C2D2C1618}" name="Promedio  ponderado " dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{E8388D6B-7F38-4BF7-A883-EE1C2D2C1618}" name="Promedio  ponderado " dataDxfId="1">
       <calculatedColumnFormula>SUMPRODUCT(D2:E21) / SUM(D2:D21)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{A25F046D-EA44-478F-9606-E17A13704D60}" name="Total de la suma:" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabla1[[Promedio  ponderado ]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3459,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BB9DEE-AF08-430A-A41B-5BA92510C02A}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3473,10 +3482,12 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3495,15 +3506,18 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <f>MAX(C2:C21)</f>
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -3523,15 +3537,19 @@
         <f>SUMPRODUCT(D2:E21) / SUM(D2:D21)</f>
         <v>3.2057416267942584</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2">
+        <f>SUM(Tabla1[[Promedio  ponderado ]])</f>
+        <v>33.420432394116595</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <f>MIN(C2:C21)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45293</v>
       </c>
@@ -3548,18 +3566,19 @@
         <v>25</v>
       </c>
       <c r="F3" s="2">
-        <f>SUMPRODUCT(D2:E22) / SUM(D2:D22)</f>
-        <v>3.2057416267942584</v>
-      </c>
-      <c r="G3" s="7" t="s">
+        <f>SUMPRODUCT(D3:E23) / SUM(D2:D22)</f>
+        <v>2.9952153110047846</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <f>MAX(D2:D21)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45294</v>
       </c>
@@ -3576,18 +3595,19 @@
         <v>32</v>
       </c>
       <c r="F4" s="2">
-        <f>SUMPRODUCT(D4:E23) / SUM(D4:D23)</f>
-        <v>3.1711229946524062</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <f>SUMPRODUCT(D4:E23) / SUM(D2:D21)</f>
+        <v>2.8373205741626792</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <f>MIN(D2:D21)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45295</v>
       </c>
@@ -3604,18 +3624,19 @@
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F21" si="0">SUMPRODUCT(D5:E24) / SUM(D5:D24)</f>
-        <v>3.101123595505618</v>
-      </c>
-      <c r="G5" s="8" t="s">
+        <f>SUMPRODUCT(D5:E24) / SUM(D2:D21)</f>
+        <v>2.6411483253588517</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <f>MAX(E2:E21)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45296</v>
       </c>
@@ -3632,18 +3653,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1454545454545455</v>
-      </c>
-      <c r="G6" s="8" t="s">
+        <f>SUMPRODUCT(D6:E25) / SUM(D2:D21)</f>
+        <v>2.4832535885167464</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <f>MIN(E2:E21)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45297</v>
       </c>
@@ -3660,11 +3682,12 @@
         <v>35</v>
       </c>
       <c r="F7" s="2">
-        <f>SUMPRODUCT(D7:E21) / SUM(D7:D21)</f>
-        <v>3.4928571428571429</v>
-      </c>
+        <f>SUMPRODUCT(D7:E21) / SUM(D2:D16)</f>
+        <v>3.0185185185185186</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45298</v>
       </c>
@@ -3681,11 +3704,12 @@
         <v>28</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3609022556390977</v>
-      </c>
+        <f>SUMPRODUCT(D8:E27) / SUM(D2:D21)</f>
+        <v>2.138755980861244</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45299</v>
       </c>
@@ -3702,11 +3726,12 @@
         <v>8</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2519685039370079</v>
-      </c>
+        <f>SUMPRODUCT(D9:E28) / SUM(D2:D21)</f>
+        <v>1.9760765550239234</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45300</v>
       </c>
@@ -3723,11 +3748,12 @@
         <v>37</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.574074074074074</v>
-      </c>
+        <f>SUMPRODUCT(D10:E29) / SUM(D2:D21)</f>
+        <v>1.8468899521531101</v>
+      </c>
+      <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45301</v>
       </c>
@@ -3744,11 +3770,12 @@
         <v>22</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3398058252427183</v>
-      </c>
+        <f>SUMPRODUCT(D11:E30) / SUM(D2:D21)</f>
+        <v>1.6459330143540669</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45302</v>
       </c>
@@ -3765,11 +3792,12 @@
         <v>33</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.19</v>
-      </c>
+        <f>SUMPRODUCT(D12:E31) / SUM(D2:D21)</f>
+        <v>1.5263157894736843</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45303</v>
       </c>
@@ -3786,11 +3814,12 @@
         <v>26</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0439560439560438</v>
-      </c>
+        <f>SUMPRODUCT(D13:E32) / SUM(D2:D21)</f>
+        <v>1.3253588516746411</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45304</v>
       </c>
@@ -3807,11 +3836,12 @@
         <v>6</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9753086419753085</v>
-      </c>
+        <f>SUMPRODUCT(D14:E33) / SUM(D2:D21)</f>
+        <v>1.1531100478468899</v>
+      </c>
+      <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45305</v>
       </c>
@@ -3828,11 +3858,12 @@
         <v>21</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0810810810810811</v>
-      </c>
+        <f>SUMPRODUCT(D15:E34) / SUM(D2:D21)</f>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45306</v>
       </c>
@@ -3849,11 +3880,12 @@
         <v>7</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>3.078125</v>
-      </c>
+        <f>SUMPRODUCT(D16:E35) / SUM(D2:D21)</f>
+        <v>0.9425837320574163</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45307</v>
       </c>
@@ -3870,11 +3902,12 @@
         <v>31</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6808510638297873</v>
-      </c>
+        <f>SUMPRODUCT(D17:E36) / SUM(D2:D21)</f>
+        <v>0.82775119617224879</v>
+      </c>
+      <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45308</v>
       </c>
@@ -3891,11 +3924,12 @@
         <v>29</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
+        <f>SUMPRODUCT(D18:E37) / SUM(D2:D21)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45309</v>
       </c>
@@ -3912,11 +3946,12 @@
         <v>23</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+        <f>SUMPRODUCT(D19:E38) / SUM(D2:D21)</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45310</v>
       </c>
@@ -3933,11 +3968,12 @@
         <v>9</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3888888888888888</v>
-      </c>
+        <f>SUMPRODUCT(D19:E38) / SUM(D2:D21)</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45311</v>
       </c>
@@ -3954,9 +3990,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
+        <f>SUMPRODUCT(Tabla1[[#This Row],[Cantidad de transportes]:[Pago de Peaje (USD)]]) / SUM(D2:D21)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4124,20 +4161,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a1a0c274-21cd-4bb8-80ec-b5e54bfc2b12" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a1a0c274-21cd-4bb8-80ec-b5e54bfc2b12" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4159,14 +4196,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31881306-1153-4740-AB16-F2985C0C4E74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7BFD29-2703-4545-BC39-221EFCCC827D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4180,4 +4209,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31881306-1153-4740-AB16-F2985C0C4E74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>